--- a/experiments/pep_algorithm_benchmarking/exports/stats/stats_reference_pep_guardian.xlsx
+++ b/experiments/pep_algorithm_benchmarking/exports/stats/stats_reference_pep_guardian.xlsx
@@ -665,16 +665,16 @@
         <v>19.38787622763039</v>
       </c>
       <c r="H4">
-        <v>4.65714423643552E-10</v>
+        <v>4.657144236435521E-10</v>
       </c>
       <c r="I4">
-        <v>2.609264219634217E-07</v>
+        <v>2.60926421963443E-07</v>
       </c>
       <c r="J4">
         <v>0.1817121847878458</v>
       </c>
       <c r="K4">
-        <v>0.6595145875037709</v>
+        <v>0.6595145875037662</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -703,13 +703,13 @@
         <v>0.2393679498535117</v>
       </c>
       <c r="I5">
-        <v>0.2459809703367545</v>
+        <v>0.245980970336754</v>
       </c>
       <c r="J5">
         <v>0.007647668167696385</v>
       </c>
       <c r="K5">
-        <v>0.8535926568726936</v>
+        <v>0.85359265687269</v>
       </c>
     </row>
   </sheetData>
